--- a/Jogos_do_Dia/2023-06-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>League</t>
   </si>
@@ -121,16 +121,40 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
     <t>20:00:00</t>
   </si>
   <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
     <t>Campinense</t>
   </si>
   <si>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
+    <t>Aparecidense</t>
+  </si>
+  <si>
     <t>Iguatu</t>
+  </si>
+  <si>
+    <t>Forge FC</t>
   </si>
 </sst>
 </file>
@@ -492,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,102 +637,316 @@
         <v>45097</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>1.79</v>
+      </c>
+      <c r="H2">
+        <v>2.9</v>
+      </c>
+      <c r="I2">
+        <v>5.2</v>
+      </c>
+      <c r="J2">
+        <v>1.12</v>
+      </c>
+      <c r="K2">
+        <v>5.5</v>
+      </c>
+      <c r="L2">
+        <v>1.51</v>
+      </c>
+      <c r="M2">
+        <v>2.4</v>
+      </c>
+      <c r="N2">
+        <v>2.51</v>
+      </c>
+      <c r="O2">
+        <v>1.4</v>
+      </c>
+      <c r="P2">
+        <v>1.56</v>
+      </c>
+      <c r="Q2">
+        <v>2.3</v>
+      </c>
+      <c r="R2">
+        <v>2.3</v>
+      </c>
+      <c r="S2">
+        <v>1.55</v>
+      </c>
+      <c r="T2">
+        <v>1.15</v>
+      </c>
+      <c r="U2">
+        <v>1.25</v>
+      </c>
+      <c r="V2">
+        <v>1.8</v>
+      </c>
+      <c r="W2">
+        <v>1.75</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1.77</v>
+      </c>
+      <c r="Z2">
+        <v>1.08</v>
+      </c>
+      <c r="AA2">
+        <v>2.85</v>
+      </c>
+      <c r="AB2">
+        <v>1.57</v>
+      </c>
+      <c r="AC2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>2.72</v>
+      </c>
+      <c r="AE2">
+        <v>1.26</v>
+      </c>
+      <c r="AF2">
+        <v>1.49</v>
+      </c>
+      <c r="AG2">
+        <v>1.93</v>
+      </c>
+      <c r="AH2">
+        <v>2.18</v>
+      </c>
+      <c r="AI2">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45097</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>1.47</v>
+      </c>
+      <c r="H3">
+        <v>3.54</v>
+      </c>
+      <c r="I3">
+        <v>5.84</v>
+      </c>
+      <c r="J3">
+        <v>1.05</v>
+      </c>
+      <c r="K3">
+        <v>9.75</v>
+      </c>
+      <c r="L3">
+        <v>1.3</v>
+      </c>
+      <c r="M3">
+        <v>3.2</v>
+      </c>
+      <c r="N3">
+        <v>2.05</v>
+      </c>
+      <c r="O3">
+        <v>1.7</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>2.66</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>1.68</v>
+      </c>
+      <c r="T3">
+        <v>1.07</v>
+      </c>
+      <c r="U3">
+        <v>1.2</v>
+      </c>
+      <c r="V3">
+        <v>2.3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>2.46</v>
+      </c>
+      <c r="Z3">
+        <v>1.6</v>
+      </c>
+      <c r="AA3">
+        <v>4.06</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>2.46</v>
-      </c>
-      <c r="Z2">
-        <v>1.6</v>
-      </c>
-      <c r="AA2">
-        <v>4.06</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
+      <c r="B4" s="2">
+        <v>45097</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>5.2</v>
+      </c>
+      <c r="H4">
+        <v>3.9</v>
+      </c>
+      <c r="I4">
+        <v>1.5</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.8</v>
+      </c>
+      <c r="O4">
+        <v>1.9</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>2.1</v>
+      </c>
+      <c r="S4">
+        <v>1.67</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>1.22</v>
+      </c>
+      <c r="Z4">
+        <v>1.59</v>
+      </c>
+      <c r="AA4">
+        <v>2.81</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>League</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Canada Canadian Premier League</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
   </si>
   <si>
     <t>20:00:00</t>
@@ -643,19 +640,19 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="H2">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J2">
         <v>1.12</v>
@@ -670,10 +667,10 @@
         <v>2.4</v>
       </c>
       <c r="N2">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="O2">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P2">
         <v>1.56</v>
@@ -744,25 +741,25 @@
         <v>45097</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="H3">
-        <v>3.54</v>
+        <v>3.37</v>
       </c>
       <c r="I3">
-        <v>5.84</v>
+        <v>5.12</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -789,19 +786,19 @@
         <v>2.66</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="T3">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="U3">
         <v>1.2</v>
       </c>
       <c r="V3">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -851,40 +848,40 @@
         <v>45097</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>5.2</v>
+        <v>4.76</v>
       </c>
       <c r="H4">
-        <v>3.9</v>
+        <v>3.72</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="N4">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O4">
         <v>1.9</v>
@@ -902,13 +899,13 @@
         <v>1.67</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W4">
         <v>0.5</v>
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
